--- a/Events_Activities.xlsx
+++ b/Events_Activities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Desktop\TEC\Septimo semestre\Transport\Assignment3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Desktop\TEC\Septimo semestre\Transport\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD63FC-4C0A-467E-ACC0-A649C456858C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38D3CA-18AC-40ED-AED3-8D593C54654F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3C8E216-4E55-41ED-A3E0-650017254D71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3C8E216-4E55-41ED-A3E0-650017254D71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Events</t>
   </si>
@@ -118,10 +118,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +156,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -155,9 +195,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard_Blad1" xfId="1" xr:uid="{7C2BE60C-BB2D-488D-99B3-19AFCEAE28D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -493,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D1C81-317D-42F7-A675-32BAF9A67B57}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="181" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05BEB46-0BB5-463E-8937-80DCA0B98DD6}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +650,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -618,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>800</v>
       </c>
@@ -644,8 +687,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF($C$2:$H$6,J2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -668,8 +718,15 @@
         <v>21</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K12" si="0">COUNTIF($C$2:$H$6,J3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3100</v>
       </c>
@@ -686,8 +743,15 @@
         <v>21</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3500</v>
       </c>
@@ -707,8 +771,15 @@
         <v>23</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3900</v>
       </c>
@@ -725,11 +796,70 @@
         <v>24</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>COUNTIF(C2:H6,"Amr")</f>
         <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
